--- a/tools/luban/Datas/__tables__.xlsx
+++ b/tools/luban/Datas/__tables__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\DataBase\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D787A-9DCD-4634-8CAA-CF8B80A1D92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708FA006-11B0-4683-B41B-DABC05D07B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -304,6 +304,30 @@
   </si>
   <si>
     <t>Gachas.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnlineReward.TbOnlineReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnlineReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnlineTime@Rewards.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaysChickIn@Rewards.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DayReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DaysReward.TbDaysReward</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -681,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,6 +1046,34 @@
       </c>
       <c r="E20" s="2" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1039,6 +1091,8 @@
     <hyperlink ref="E17" r:id="rId10" xr:uid="{12512F0D-ACE1-4EE4-9036-25727134A8F0}"/>
     <hyperlink ref="E10" r:id="rId11" xr:uid="{4C6099BA-A013-4852-A4AB-EC119B27ECCD}"/>
     <hyperlink ref="E18" r:id="rId12" xr:uid="{288C89BC-ACC9-4663-AE07-A5F26C670816}"/>
+    <hyperlink ref="E21" r:id="rId13" xr:uid="{496529EF-8A8C-4CED-A62F-2898604E59FA}"/>
+    <hyperlink ref="E22" r:id="rId14" xr:uid="{05004BEA-B670-470C-9782-1B90B2145717}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/luban/Datas/__tables__.xlsx
+++ b/tools/luban/Datas/__tables__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708FA006-11B0-4683-B41B-DABC05D07B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA468224-AB26-42A1-A6E7-0DEFA453A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -151,10 +151,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Quests.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Buffs@Buffs.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,6 +324,22 @@
   </si>
   <si>
     <t>DaysReward.TbDaysReward</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllQuests.TbAllQuests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllQuests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllQuests@Quests.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainLine@Quests.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -705,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -821,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -835,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -876,204 +888,218 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
+      <c r="E8" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D18" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="D19" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="D20" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>80</v>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1093,6 +1119,8 @@
     <hyperlink ref="E18" r:id="rId12" xr:uid="{288C89BC-ACC9-4663-AE07-A5F26C670816}"/>
     <hyperlink ref="E21" r:id="rId13" xr:uid="{496529EF-8A8C-4CED-A62F-2898604E59FA}"/>
     <hyperlink ref="E22" r:id="rId14" xr:uid="{05004BEA-B670-470C-9782-1B90B2145717}"/>
+    <hyperlink ref="E23" r:id="rId15" xr:uid="{5E7318AB-1DEA-4126-A4DA-F4D57EA9F1FF}"/>
+    <hyperlink ref="E8" r:id="rId16" xr:uid="{C73A6969-644A-42C0-9260-75D14D84E058}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/luban/Datas/__tables__.xlsx
+++ b/tools/luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA468224-AB26-42A1-A6E7-0DEFA453A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C47A3-FC66-444F-A85B-55277A3967BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,18 +187,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Goods.TbGoods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Goods.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MainBuffs.TbMainBuffs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,6 +328,18 @@
   </si>
   <si>
     <t>MainLine@Quests.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shops.TbShops</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shops</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shop.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -917,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -944,30 +944,30 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>53</v>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -978,24 +978,24 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -1009,13 +1009,13 @@
         <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1048,58 +1048,58 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>76</v>
+      <c r="E20" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>85</v>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1109,17 +1109,17 @@
     <hyperlink ref="E7" r:id="rId2" xr:uid="{CA1240B4-712B-4FFD-9E21-1B9DB24F7455}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{E04EC83A-659E-475D-B4CF-60D08CB3BD80}"/>
     <hyperlink ref="E9" r:id="rId4" xr:uid="{3D19F0CF-A006-4F95-92B4-F7168A9C3BD6}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{802820D0-DCA0-4A2F-B98B-0E2996DD5A79}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{802820D0-DCA0-4A2F-B98B-0E2996DD5A79}"/>
     <hyperlink ref="E5" r:id="rId6" xr:uid="{5FA1A429-863B-4B2D-92B2-98643E663F39}"/>
-    <hyperlink ref="E14" r:id="rId7" xr:uid="{95B7D493-2F33-4FB3-A191-C3B2E4A2ED4B}"/>
-    <hyperlink ref="E15" r:id="rId8" xr:uid="{6951B069-5957-4164-AF26-D749B6604D08}"/>
-    <hyperlink ref="E16" r:id="rId9" xr:uid="{81D0A6F9-4ECA-4A2D-AD58-B0C65B254720}"/>
-    <hyperlink ref="E17" r:id="rId10" xr:uid="{12512F0D-ACE1-4EE4-9036-25727134A8F0}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{95B7D493-2F33-4FB3-A191-C3B2E4A2ED4B}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{6951B069-5957-4164-AF26-D749B6604D08}"/>
+    <hyperlink ref="E15" r:id="rId9" xr:uid="{81D0A6F9-4ECA-4A2D-AD58-B0C65B254720}"/>
+    <hyperlink ref="E16" r:id="rId10" xr:uid="{12512F0D-ACE1-4EE4-9036-25727134A8F0}"/>
     <hyperlink ref="E10" r:id="rId11" xr:uid="{4C6099BA-A013-4852-A4AB-EC119B27ECCD}"/>
-    <hyperlink ref="E18" r:id="rId12" xr:uid="{288C89BC-ACC9-4663-AE07-A5F26C670816}"/>
-    <hyperlink ref="E21" r:id="rId13" xr:uid="{496529EF-8A8C-4CED-A62F-2898604E59FA}"/>
-    <hyperlink ref="E22" r:id="rId14" xr:uid="{05004BEA-B670-470C-9782-1B90B2145717}"/>
-    <hyperlink ref="E23" r:id="rId15" xr:uid="{5E7318AB-1DEA-4126-A4DA-F4D57EA9F1FF}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{288C89BC-ACC9-4663-AE07-A5F26C670816}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{496529EF-8A8C-4CED-A62F-2898604E59FA}"/>
+    <hyperlink ref="E21" r:id="rId14" xr:uid="{05004BEA-B670-470C-9782-1B90B2145717}"/>
+    <hyperlink ref="E22" r:id="rId15" xr:uid="{5E7318AB-1DEA-4126-A4DA-F4D57EA9F1FF}"/>
     <hyperlink ref="E8" r:id="rId16" xr:uid="{C73A6969-644A-42C0-9260-75D14D84E058}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/luban/Datas/__tables__.xlsx
+++ b/tools/luban/Datas/__tables__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C47A3-FC66-444F-A85B-55277A3967BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E370646-DCE2-4DF4-81C3-C9266C2332A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>##var</t>
   </si>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>Shop.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheathers.TbWeathers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheather.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheathers</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1112,20 @@
       </c>
       <c r="E23" s="2" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tools/luban/Datas/__tables__.xlsx
+++ b/tools/luban/Datas/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Godot\AwesomeRPG\tools\luban\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E370646-DCE2-4DF4-81C3-C9266C2332A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480156E6-938F-477D-8484-85CDFAACF714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12682" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>##var</t>
   </si>
@@ -352,6 +352,18 @@
   </si>
   <si>
     <t>Wheathers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps.TbMaps</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maps</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -729,22 +741,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.75" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,7 +791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -811,7 +823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -834,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
@@ -848,7 +860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
@@ -862,7 +874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
@@ -876,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
@@ -890,7 +902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
@@ -904,7 +916,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>42</v>
       </c>
@@ -918,7 +930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
@@ -932,7 +944,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>45</v>
       </c>
@@ -946,7 +958,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>48</v>
       </c>
@@ -960,7 +972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>52</v>
       </c>
@@ -974,7 +986,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>56</v>
       </c>
@@ -988,7 +1000,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>62</v>
       </c>
@@ -1016,7 +1028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
@@ -1044,7 +1056,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>71</v>
       </c>
@@ -1058,7 +1070,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>79</v>
       </c>
@@ -1072,7 +1084,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>74</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>80</v>
       </c>
@@ -1100,7 +1112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>84</v>
       </c>
@@ -1114,7 +1126,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>87</v>
       </c>
@@ -1126,6 +1138,20 @@
       </c>
       <c r="E24" s="2" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
